--- a/medicine/Psychotrope/Chōshi_(récipient)/Chōshi_(récipient).xlsx
+++ b/medicine/Psychotrope/Chōshi_(récipient)/Chōshi_(récipient).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C5%8Dshi_(r%C3%A9cipient)</t>
+          <t>Chōshi_(récipient)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un chōshi (銚子?) ou hisage (提子?) est un pichet traditionnel destiné au service du saké, l'alcool de riz du Japon. Il peut être en métal, en céramique, en porcelaine ou en bois laqué.
